--- a/html/resources/1condition/trialsB4.xlsx
+++ b/html/resources/1condition/trialsB4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janet/Desktop/Sinai_Projects/Code/fish-task-6B20T/1condition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janet/Desktop/Sinai_Projects/Code/fish-task-6B20T/html/resources/1condition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C9AB0B-4741-FF4A-86A8-E0528DF48957}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B0204A-1BCD-904D-8CDD-D36DBA008B25}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>stimuli/bead_y.PNG</t>
   </si>
   <si>
-    <t>stimuli/blank.JPG</t>
-  </si>
-  <si>
     <t>stimuli/bead_g.PNG</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>up</t>
+  </si>
+  <si>
+    <t>stimuli/blank.jpg</t>
   </si>
 </sst>
 </file>
@@ -447,16 +447,16 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -473,19 +473,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -497,7 +497,7 @@
         <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -505,19 +505,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -529,7 +529,7 @@
         <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -537,19 +537,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -561,7 +561,7 @@
         <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -569,16 +569,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -601,19 +601,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -630,19 +630,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -662,25 +662,25 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
         <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -694,22 +694,22 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
         <v>14</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -726,10 +726,10 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -738,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -746,28 +746,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
         <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -778,25 +778,25 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
         <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -810,22 +810,22 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
         <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -842,19 +842,19 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
         <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -862,7 +862,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -874,7 +874,7 @@
         <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
@@ -920,13 +920,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -949,16 +949,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -978,19 +978,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1010,16 +1010,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21">
         <v>0</v>
